--- a/oldbiji/jml2.xlsx
+++ b/oldbiji/jml2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\biji\oldbiji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{96963896-82DF-4873-90BA-DF04267DD832}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="jml2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1141,7 +1140,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1219,20 +1218,20 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <f>S2+T2-O2</f>
+        <f t="shared" ref="B2:B13" si="0">S2+T2-O2</f>
         <v>1136</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -1285,7 +1284,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <f>S3+T3-O3</f>
+        <f t="shared" si="0"/>
         <v>1033</v>
       </c>
       <c r="C3">
@@ -1351,7 +1350,7 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <f>S4+T4-O4</f>
+        <f t="shared" si="0"/>
         <v>1071</v>
       </c>
       <c r="C4">
@@ -1420,7 +1419,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <f>S5+T5-O5</f>
+        <f t="shared" si="0"/>
         <v>1037</v>
       </c>
       <c r="C5">
@@ -1486,29 +1485,29 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <f>S6+T6-O6</f>
+        <f t="shared" si="0"/>
         <v>1321</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J6">
         <v>15</v>
@@ -1555,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="B7">
-        <f>S7+T7-O7</f>
+        <f t="shared" si="0"/>
         <v>983</v>
       </c>
       <c r="C7">
@@ -1621,7 +1620,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <f>S8+T8-O8</f>
+        <f t="shared" si="0"/>
         <v>1061</v>
       </c>
       <c r="C8">
@@ -1690,7 +1689,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <f>S9+T9-O9</f>
+        <f t="shared" si="0"/>
         <v>936</v>
       </c>
       <c r="C9">
@@ -1756,7 +1755,7 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <f>S10+T10-O10</f>
+        <f t="shared" si="0"/>
         <v>1069</v>
       </c>
       <c r="C10">
@@ -1822,7 +1821,7 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <f>S11+T11-O11</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="C11">
@@ -1894,7 +1893,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <f>S12+T12-O12</f>
+        <f t="shared" si="0"/>
         <v>1127</v>
       </c>
       <c r="C12">
@@ -1960,7 +1959,7 @@
         <v>43</v>
       </c>
       <c r="B13">
-        <f>S13+T13-O13</f>
+        <f t="shared" si="0"/>
         <v>926</v>
       </c>
       <c r="C13">
@@ -2026,10 +2025,13 @@
         <v>45</v>
       </c>
       <c r="B14">
-        <v>1100</v>
+        <v>11000</v>
       </c>
       <c r="C14">
-        <v>900</v>
+        <v>9000</v>
+      </c>
+      <c r="D14">
+        <v>15000</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2039,6 +2041,24 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2047,36 +2067,82 @@
       <c r="B16">
         <v>2</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
       <c r="B18">
-        <v>1000</v>
+        <f>2000*B15+4000*B16+8000*B17</f>
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:R18" si="1">2000*C15+4000*C16+8000*C17</f>
+        <v>10000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>14000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19">
         <f>AVERAGE(14:14)</f>
-        <v>1000</v>
+        <v>11666.666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20">
-        <f>AVERAGE(19:19)</f>
-        <v>1000</v>
+        <f>AVERAGE(18:18)</f>
+        <v>10571.428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/oldbiji/jml2.xlsx
+++ b/oldbiji/jml2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\biji\oldbiji\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1E01D8-D191-4AA7-AE37-F015657BB5D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jml2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1136,11 +1137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2082,8 +2083,14 @@
       <c r="H16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2093,8 +2100,11 @@
       <c r="H17">
         <v>1</v>
       </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2103,7 +2113,7 @@
         <v>10000</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:R18" si="1">2000*C15+4000*C16+8000*C17</f>
+        <f t="shared" ref="C18:J18" si="1">2000*C15+4000*C16+8000*C17</f>
         <v>10000</v>
       </c>
       <c r="D18">
@@ -2126,8 +2136,16 @@
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>16000</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2136,13 +2154,13 @@
         <v>11666.666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20">
         <f>AVERAGE(18:18)</f>
-        <v>10571.428571428571</v>
+        <v>11333.333333333334</v>
       </c>
     </row>
   </sheetData>
